--- a/Real_Dataset.xlsx
+++ b/Real_Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\r-index\ERQI Submitted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1481CE4C-306C-473A-A35C-FC29C2603ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFBBF53-618C-4438-81E8-6485F4259497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,9 +436,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,7 +754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,10 +846,12 @@
         <f>E2/SQRT(F2)</f>
         <v>0.81649658092772615</v>
       </c>
-      <c r="I2" s="7">
-        <v>0.33</v>
+      <c r="I2" s="8">
+        <f>G2/F2</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J2" s="7">
+        <f>SQRT(G2/E2)</f>
         <v>1</v>
       </c>
       <c r="K2" s="7">
@@ -901,11 +900,13 @@
         <f t="shared" ref="H3:H32" si="0">E3/SQRT(F3)</f>
         <v>1.7925163190605438</v>
       </c>
-      <c r="I3" s="9">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J3" s="9">
-        <v>8.93</v>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I32" si="1">G3/F3</f>
+        <v>2.0491803278688523</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" ref="J3:J32" si="2">SQRT(G3/E3)</f>
+        <v>2.988071523335984</v>
       </c>
       <c r="K3" s="9">
         <v>5</v>
@@ -920,8 +921,8 @@
         <v>5.61</v>
       </c>
       <c r="O3" s="10">
-        <f t="shared" ref="O3:O32" si="1">POWER(1+H3*I3*J3*L3*N3,1/5)</f>
-        <v>3.5366138579575144</v>
+        <f t="shared" ref="O3:O32" si="3">POWER(1+H3*I3*J3*L3*N3,1/5)</f>
+        <v>2.8429722876573029</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>10</v>
@@ -953,11 +954,13 @@
         <f t="shared" si="0"/>
         <v>1.8203641092364127</v>
       </c>
-      <c r="I4" s="7">
-        <v>2.78</v>
-      </c>
-      <c r="J4" s="7">
-        <v>10.92</v>
+      <c r="I4" s="8">
+        <f t="shared" si="1"/>
+        <v>2.784313725490196</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="2"/>
+        <v>3.3050078552216671</v>
       </c>
       <c r="K4" s="7">
         <v>6</v>
@@ -972,8 +975,8 @@
         <v>6.15</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" si="1"/>
-        <v>4.2338554907933323</v>
+        <f t="shared" si="3"/>
+        <v>3.3358562856263192</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>11</v>
@@ -1005,11 +1008,13 @@
         <f t="shared" si="0"/>
         <v>3.2142857142857144</v>
       </c>
-      <c r="I5" s="9">
-        <v>1.71</v>
-      </c>
-      <c r="J5" s="9">
-        <v>7.44</v>
+      <c r="I5" s="10">
+        <f t="shared" si="1"/>
+        <v>1.7091836734693877</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="2"/>
+        <v>2.7284509239574835</v>
       </c>
       <c r="K5" s="9">
         <v>10</v>
@@ -1024,8 +1029,8 @@
         <v>10.1</v>
       </c>
       <c r="O5" s="10">
-        <f t="shared" si="1"/>
-        <v>4.6028946000688142</v>
+        <f t="shared" si="3"/>
+        <v>3.7664379488096058</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>12</v>
@@ -1057,11 +1062,13 @@
         <f t="shared" si="0"/>
         <v>3.3109524332188154</v>
       </c>
-      <c r="I6" s="7">
-        <v>2.63</v>
-      </c>
-      <c r="J6" s="7">
-        <v>12.96</v>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6315789473684212</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>3.6004114991154781</v>
       </c>
       <c r="K6" s="7">
         <v>15</v>
@@ -1076,8 +1083,8 @@
         <v>15.12</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="1"/>
-        <v>6.3394536388139713</v>
+        <f t="shared" si="3"/>
+        <v>4.9076707680967351</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>13</v>
@@ -1109,11 +1116,13 @@
         <f t="shared" si="0"/>
         <v>1.829982843991256</v>
       </c>
-      <c r="I7" s="14">
-        <v>10.49</v>
-      </c>
-      <c r="J7" s="14">
-        <v>37.58</v>
+      <c r="I7" s="13">
+        <f t="shared" si="1"/>
+        <v>10.488372093023257</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="2"/>
+        <v>6.1305247192498404</v>
       </c>
       <c r="K7" s="14">
         <v>4</v>
@@ -1128,8 +1137,8 @@
         <v>4.24</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="1"/>
-        <v>5.7191201976534884</v>
+        <f t="shared" si="3"/>
+        <v>3.9801251372581716</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>14</v>
@@ -1161,11 +1170,13 @@
         <f t="shared" si="0"/>
         <v>2.2501758018520479</v>
       </c>
-      <c r="I8" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="J8" s="7">
-        <v>5.15</v>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3037974683544304</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2693611435820435</v>
       </c>
       <c r="K8" s="7">
         <v>6</v>
@@ -1180,8 +1191,8 @@
         <v>6.12</v>
       </c>
       <c r="O8" s="8">
-        <f t="shared" si="1"/>
-        <v>2.8419698476915372</v>
+        <f t="shared" si="3"/>
+        <v>2.4170281174769128</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>15</v>
@@ -1213,11 +1224,13 @@
         <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="I9" s="9">
-        <v>1.53</v>
-      </c>
-      <c r="J9" s="9">
-        <v>6.67</v>
+      <c r="I9" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5819888974716112</v>
       </c>
       <c r="K9" s="9">
         <v>8</v>
@@ -1232,8 +1245,8 @@
         <v>8.24</v>
       </c>
       <c r="O9" s="10">
-        <f t="shared" si="1"/>
-        <v>4.0990623511296169</v>
+        <f t="shared" si="3"/>
+        <v>3.3903381776351473</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>16</v>
@@ -1265,11 +1278,13 @@
         <f t="shared" si="0"/>
         <v>3.6165826866906183</v>
       </c>
-      <c r="I10" s="7">
-        <v>3.22</v>
-      </c>
-      <c r="J10" s="7">
-        <v>16.97</v>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>3.2170329670329672</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="2"/>
+        <v>4.119589116981647</v>
       </c>
       <c r="K10" s="7">
         <v>17</v>
@@ -1284,8 +1299,8 @@
         <v>17.149999999999999</v>
       </c>
       <c r="O10" s="8">
-        <f t="shared" si="1"/>
-        <v>7.8862655518956881</v>
+        <f t="shared" si="3"/>
+        <v>5.9406590710208862</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>17</v>
@@ -1317,11 +1332,13 @@
         <f t="shared" si="0"/>
         <v>2.7364457957760355</v>
       </c>
-      <c r="I11" s="9">
-        <v>1.94</v>
-      </c>
-      <c r="J11" s="9">
-        <v>12.15</v>
+      <c r="I11" s="10">
+        <f t="shared" si="1"/>
+        <v>1.935593220338983</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="2"/>
+        <v>3.4855324084295596</v>
       </c>
       <c r="K11" s="9">
         <v>11</v>
@@ -1336,8 +1353,8 @@
         <v>11.24</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="1"/>
-        <v>4.9261562030495298</v>
+        <f t="shared" si="3"/>
+        <v>3.8363997663461915</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>18</v>
@@ -1369,11 +1386,13 @@
         <f t="shared" si="0"/>
         <v>3.5821338847559612</v>
       </c>
-      <c r="I12" s="7">
-        <v>1.77</v>
-      </c>
-      <c r="J12" s="7">
-        <v>4.97</v>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7722772277227723</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="2"/>
+        <v>2.2298480267099419</v>
       </c>
       <c r="K12" s="7">
         <v>6</v>
@@ -1388,8 +1407,8 @@
         <v>6.24</v>
       </c>
       <c r="O12" s="8">
-        <f t="shared" si="1"/>
-        <v>3.7953652131122704</v>
+        <f t="shared" si="3"/>
+        <v>3.235073397238367</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>19</v>
@@ -1422,10 +1441,12 @@
         <v>8.5940699076914715</v>
       </c>
       <c r="I13" s="10">
-        <v>4.3600000000000003</v>
+        <f t="shared" si="1"/>
+        <v>4.3643006263048019</v>
       </c>
       <c r="J13" s="13">
-        <v>15.72</v>
+        <f t="shared" si="2"/>
+        <v>3.9645989851158911</v>
       </c>
       <c r="K13" s="13">
         <v>29</v>
@@ -1440,8 +1461,8 @@
         <v>29.61</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="1"/>
-        <v>12.278337642147921</v>
+        <f t="shared" si="3"/>
+        <v>9.3234247971320432</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>31</v>
@@ -1473,11 +1494,13 @@
         <f t="shared" si="0"/>
         <v>1.8090680674665818</v>
       </c>
-      <c r="I14" s="7">
-        <v>5.07</v>
-      </c>
-      <c r="J14" s="7">
-        <v>18.579999999999998</v>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>5.0681818181818183</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="2"/>
+        <v>4.3108390521258544</v>
       </c>
       <c r="K14" s="7">
         <v>6</v>
@@ -1492,8 +1515,8 @@
         <v>6.15</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="1"/>
-        <v>5.3028513535257655</v>
+        <f t="shared" si="3"/>
+        <v>3.9595888146477414</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>20</v>
@@ -1525,11 +1548,13 @@
         <f t="shared" si="0"/>
         <v>2.6186146828319088</v>
       </c>
-      <c r="I15" s="9">
-        <v>1.67</v>
-      </c>
-      <c r="J15" s="9">
-        <v>2.92</v>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="2"/>
+        <v>1.707825127659933</v>
       </c>
       <c r="K15" s="9">
         <v>4</v>
@@ -1544,8 +1569,8 @@
         <v>4.24</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="1"/>
-        <v>2.7711799225557496</v>
+        <f t="shared" si="3"/>
+        <v>2.4904711624421494</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>21</v>
@@ -1577,11 +1602,13 @@
         <f t="shared" si="0"/>
         <v>1.7873696499288347</v>
       </c>
-      <c r="I16" s="7">
-        <v>2.35</v>
-      </c>
-      <c r="J16" s="7">
-        <v>14</v>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3539823008849559</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="2"/>
+        <v>3.7416573867739413</v>
       </c>
       <c r="K16" s="7">
         <v>9</v>
@@ -1596,8 +1623,8 @@
         <v>9.1199999999999992</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="1"/>
-        <v>4.3788416885823365</v>
+        <f t="shared" si="3"/>
+        <v>3.3654330971716084</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>22</v>
@@ -1630,11 +1657,13 @@
         <f t="shared" si="0"/>
         <v>1.9445436482630056</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="10">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J17" s="9">
-        <v>1.45</v>
+      <c r="J17" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2060453783110545</v>
       </c>
       <c r="K17" s="9">
         <v>2</v>
@@ -1649,8 +1678,8 @@
         <v>2.61</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="1"/>
-        <v>1.5290869029010115</v>
+        <f t="shared" si="3"/>
+        <v>1.4808398961737916</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
@@ -1683,11 +1712,13 @@
         <f t="shared" si="0"/>
         <v>2.4166666666666665</v>
       </c>
-      <c r="I18" s="7">
-        <v>2.09</v>
-      </c>
-      <c r="J18" s="7">
-        <v>10.38</v>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>2.0902777777777777</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="2"/>
+        <v>3.2216937074817626</v>
       </c>
       <c r="K18" s="7">
         <v>6</v>
@@ -1702,8 +1733,8 @@
         <v>6.24</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="1"/>
-        <v>3.9669954567845345</v>
+        <f t="shared" si="3"/>
+        <v>3.140847186517413</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>24</v>
@@ -1735,11 +1766,13 @@
         <f t="shared" si="0"/>
         <v>2.8734788556634538</v>
       </c>
-      <c r="I19" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="J19" s="9">
-        <v>5.8</v>
+      <c r="I19" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5963302752293578</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4083189157584592</v>
       </c>
       <c r="K19" s="9">
         <v>7</v>
@@ -1754,8 +1787,8 @@
         <v>7.24</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="1"/>
-        <v>3.7814930897820536</v>
+        <f t="shared" si="3"/>
+        <v>3.1716097141958457</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>25</v>
@@ -1787,11 +1820,13 @@
         <f t="shared" si="0"/>
         <v>2.1320071635561044</v>
       </c>
-      <c r="I20" s="7">
-        <v>0.98</v>
-      </c>
-      <c r="J20" s="7">
-        <v>4.3</v>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="2"/>
+        <v>2.0736441353327719</v>
       </c>
       <c r="K20" s="7">
         <v>5</v>
@@ -1806,8 +1841,8 @@
         <v>5.24</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="1"/>
-        <v>2.6952557694476691</v>
+        <f t="shared" si="3"/>
+        <v>2.3316737246234198</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>26</v>
@@ -1839,11 +1874,13 @@
         <f t="shared" si="0"/>
         <v>2.70426394389691</v>
       </c>
-      <c r="I21" s="9">
-        <v>1.35</v>
-      </c>
-      <c r="J21" s="9">
-        <v>5.34</v>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>1.3478260869565217</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="2"/>
+        <v>2.3118883161188597</v>
       </c>
       <c r="K21" s="9">
         <v>6</v>
@@ -1858,8 +1895,8 @@
         <v>6.12</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="1"/>
-        <v>3.4350172000394319</v>
+        <f t="shared" si="3"/>
+        <v>2.9061116224865984</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>27</v>
@@ -1891,11 +1928,13 @@
         <f t="shared" si="0"/>
         <v>2.3333333333333335</v>
       </c>
-      <c r="I22" s="7">
-        <v>2.23</v>
-      </c>
-      <c r="J22" s="7">
-        <v>8.6199999999999992</v>
+      <c r="I22" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2345679012345681</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="2"/>
+        <v>2.9358214555806383</v>
       </c>
       <c r="K22" s="7">
         <v>8</v>
@@ -1910,8 +1949,8 @@
         <v>8.11</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="1"/>
-        <v>4.2917422082388024</v>
+        <f t="shared" si="3"/>
+        <v>3.4623495185751691</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>28</v>
@@ -1943,11 +1982,13 @@
         <f t="shared" si="0"/>
         <v>1.9167454300136628</v>
       </c>
-      <c r="I23" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="J23" s="9">
-        <v>2.77</v>
+      <c r="I23" s="10">
+        <f t="shared" si="1"/>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="2"/>
+        <v>1.6641005886756874</v>
       </c>
       <c r="K23" s="9">
         <v>3</v>
@@ -1962,8 +2003,8 @@
         <v>3.37</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7177681157369014</v>
+        <f t="shared" si="3"/>
+        <v>1.5658127913901854</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>29</v>
@@ -1995,11 +2036,13 @@
         <f t="shared" si="0"/>
         <v>4.3782490504996909</v>
       </c>
-      <c r="I24" s="7">
-        <v>1.91</v>
-      </c>
-      <c r="J24" s="7">
-        <v>7.29</v>
+      <c r="I24" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9136690647482015</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="2"/>
+        <v>2.699568712382908</v>
       </c>
       <c r="K24" s="7">
         <v>11</v>
@@ -2014,8 +2057,8 @@
         <v>11.24</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="1"/>
-        <v>5.447575382742075</v>
+        <f t="shared" si="3"/>
+        <v>4.4680086080919272</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>30</v>
@@ -2048,12 +2091,12 @@
         <v>1.2792042981336627</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" ref="I25:I32" si="2">G25/F25</f>
+        <f t="shared" si="1"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" ref="J25:J32" si="3">G25/E25</f>
-        <v>1.5</v>
+        <f t="shared" si="2"/>
+        <v>1.2247448713915889</v>
       </c>
       <c r="K25" s="16">
         <v>1</v>
@@ -2068,13 +2111,12 @@
         <v>1.61</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="1"/>
-        <v>1.1775177058736019</v>
+        <f t="shared" si="3"/>
+        <v>1.1523378292143245</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -2103,14 +2145,14 @@
         <v>1.6641005886756874</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.3461538461538463</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="3"/>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="K26" s="20">
+        <f t="shared" si="2"/>
+        <v>2.4152294576982398</v>
+      </c>
+      <c r="K26" s="19">
         <v>5</v>
       </c>
       <c r="L26" s="7">
@@ -2123,13 +2165,12 @@
         <v>5.24</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="1"/>
-        <v>2.6788131189387685</v>
+        <f t="shared" si="3"/>
+        <v>2.2502838491304842</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q26" s="19"/>
     </row>
     <row r="27" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2158,12 +2199,12 @@
         <v>1.4552137502179978</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
+        <f t="shared" si="2"/>
+        <v>1.5811388300841898</v>
       </c>
       <c r="K27" s="16">
         <v>2</v>
@@ -2178,13 +2219,12 @@
         <v>2.37</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7457670946479356</v>
+        <f t="shared" si="3"/>
+        <v>1.6041711525656404</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q27" s="19"/>
     </row>
     <row r="28" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -2213,14 +2253,14 @@
         <v>1.4832396974191326</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.76363636363636367</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="3"/>
-        <v>3.8181818181818183</v>
-      </c>
-      <c r="K28" s="20">
+        <f t="shared" si="2"/>
+        <v>1.9540168418367889</v>
+      </c>
+      <c r="K28" s="19">
         <v>4</v>
       </c>
       <c r="L28" s="7">
@@ -2233,13 +2273,12 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="1"/>
-        <v>1.8009851560341537</v>
+        <f t="shared" si="3"/>
+        <v>1.5907111942120811</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q28" s="19"/>
     </row>
     <row r="29" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -2268,12 +2307,12 @@
         <v>2.5021729686848975</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.652173913043478</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>2.6457513110645907</v>
       </c>
       <c r="K29" s="16">
         <v>6</v>
@@ -2288,13 +2327,12 @@
         <v>6.1</v>
       </c>
       <c r="O29" s="10">
-        <f t="shared" si="1"/>
-        <v>4.1092044391600027</v>
+        <f t="shared" si="3"/>
+        <v>3.3835287215889691</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="19"/>
     </row>
     <row r="30" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -2323,14 +2361,14 @@
         <v>1.4084056792618558</v>
       </c>
       <c r="I30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.3934426229508201</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="3"/>
-        <v>29.90909090909091</v>
-      </c>
-      <c r="K30" s="20">
+        <f t="shared" si="2"/>
+        <v>5.4689204518891028</v>
+      </c>
+      <c r="K30" s="19">
         <v>9</v>
       </c>
       <c r="L30" s="7">
@@ -2343,13 +2381,12 @@
         <v>9.14</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="1"/>
-        <v>6.357275228676226</v>
+        <f t="shared" si="3"/>
+        <v>4.5261408692633909</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Q30" s="19"/>
     </row>
     <row r="31" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -2378,11 +2415,11 @@
         <v>1.1338934190276817</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="16">
@@ -2398,13 +2435,12 @@
         <v>0.37</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="19"/>
     </row>
     <row r="32" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -2433,14 +2469,14 @@
         <v>1.8090680674665818</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="3"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K32" s="20">
+        <f t="shared" si="2"/>
+        <v>0.9128709291752769</v>
+      </c>
+      <c r="K32" s="19">
         <v>1</v>
       </c>
       <c r="L32" s="7">
@@ -2453,13 +2489,12 @@
         <v>2.02</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="1"/>
-        <v>1.1897862449518311</v>
+        <f t="shared" si="3"/>
+        <v>1.2026892474146473</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="19"/>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="1"/>
